--- a/Nouns identifed from problem statement.xlsx
+++ b/Nouns identifed from problem statement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Library Members</t>
   </si>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,6 +596,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>22</v>
